--- a/assets/disciplinas/LOM3210.xlsx
+++ b/assets/disciplinas/LOM3210.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>519033 - Carlos Yujiro Shigue</t>
+  </si>
+  <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -567,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,97 +703,97 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -952,6 +955,14 @@
       </c>
       <c r="C44" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" customHeight="1">
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3210.xlsx
+++ b/assets/disciplinas/LOM3210.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Oferecer oportunidade de realização de treinamento profissional em empresa ou instituição de pesquisa, sob supervisão de docente do Departamento de Engenharia de Materiais da EEL. Complementar a formação geral curricular e adaptar psicológica e socialmente o estudante à sua futura atividade profissional.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Participação em processo seletivo ou indicação de instituição para realização de estágio. Submissão do plano de trabalho específico. Realização do estágio e entrega do relatório de estágio.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Participação do aluno em processo seletivo de empresas, instituições de pesquisa ou no setor acadêmico. O estágio será realizado sob a supervisão de docente designado pela Comissão de Curso de Engenharia Física. O conteúdo será estabelecido no Plano de Trabalho entre o supervisor responsável pelo Estágio e o docente supervisor. Apresentação de relatório final sobre as atividades desenvolvidas no estágio.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características da disciplina, não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -570,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,56 +683,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -759,7 +753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -770,199 +764,177 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="30" customHeight="1">
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="30" customHeight="1">
-      <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3210.xlsx
+++ b/assets/disciplinas/LOM3210.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -125,10 +125,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1004 -  Cálculo II  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1006 -  Cálculo IV  (Requisito)
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1008 -  Ciência, Tecnologia e Sociedade  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1012 -  Estatística  (Requisito)
 </t>
   </si>
@@ -137,6 +145,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1019 -  Física II  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
@@ -153,6 +165,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1039 -  Física Experimental III  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOB1041 -  Física Experimental II  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1042 -  Física Experimental IV  (Requisito)
 </t>
   </si>
@@ -165,6 +185,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
 </t>
   </si>
@@ -173,19 +197,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOM3204 -  Desenho Técnico e Projeto Assistido por Computador  (Requisito)
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3205 -  Eletromagnetismo  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3212 -  Fenômenos de Transporte A  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3218 -  Introdução à Engenharia Física  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3236 -  Processos de Fabricação  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3240 -  Química Inorgânica Fundamental e Aplicada  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3254 -  Laboratório de Circuitos Elétricos  (Requisito)
+    <t xml:space="preserve">LOM3241 -  Química de Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3253 -  Física Matemática  (Requisito)
 </t>
   </si>
   <si>
@@ -197,11 +237,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4031 -  Química Geral I  (Requisito)
+    <t xml:space="preserve">LOM3261 -  Métodos Numéricos e Aplicações  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3262 -  Circuitos Elétricos  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4100 -  Fundamentos de Química para Engenharia I (Requisito)
 </t>
   </si>
 </sst>
@@ -558,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,6 +985,102 @@
         <v>55</v>
       </c>
     </row>
+    <row r="44" spans="2:3" ht="30" customHeight="1">
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" customHeight="1">
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" customHeight="1">
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="30" customHeight="1">
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="30" customHeight="1">
+      <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" customHeight="1">
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30" customHeight="1">
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" customHeight="1">
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" customHeight="1">
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="30" customHeight="1">
+      <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="30" customHeight="1">
+      <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOM3210.xlsx
+++ b/assets/disciplinas/LOM3210.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Supervised Work</t>
+    <t>Supervised Internship</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
@@ -46,19 +46,19 @@
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>12</t>
+    <t>6</t>
   </si>
   <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>375 h   (    Estágio: 375 h         )</t>
+    <t>195 h   (    Estágio: 195 h         )</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,34 +70,43 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Offer the opportunity to carry out professional training in a company or research institution, under the supervision of a professor from the Materials Engineering Department at EEL. Complement the general curricular training and psychologically and socially adapt the student to his/her future professional activity.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Semestral</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Participation in the selection process or indication of an institution to carry out an internship. Submission of the specific work plan. Conducting the internship and delivering the internship report.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Student participation in the selection process of companies, research institutions or in the academic sector. The internship will be carried out under the supervision of a professor appointed by the Physical Engineering Course Committee. The content will be established in the Work Plan between the supervisor responsible for the Internship and the supervising professor. Presentation of a final report on the activities carried out in the internship.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -725,360 +734,378 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="30" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="30" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3210.xlsx
+++ b/assets/disciplinas/LOM3210.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Oferecer oportunidade de realização de treinamento profissional em empresa ou instituição de pesquisa, sob supervisão de docente do Departamento de Engenharia de Materiais da EEL. Complementar a formação geral curricular e adaptar psicológica e socialmente o estudante à sua futura atividade profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Offer the opportunity to carry out professional training in a company or research institution, under the supervision of a professor from the Materials Engineering Department at EEL. Complement the general curricular training and psychologically and socially adapt the student to his/her future professional activity.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Offer the opportunity to carry out professional training in a company or research institution, under the supervision of a professor from the Materials Engineering Department at EEL. Complement the general curricular training and psychologically and socially adapt the student to his/her future professional activity.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Participação em processo seletivo ou indicação de instituição para realização de estágio. Submissão do plano de trabalho específico. Realização do estágio e entrega do relatório de estágio.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Participação do aluno em processo seletivo de empresas, instituições de pesquisa ou no setor acadêmico. O estágio será realizado sob a supervisão de docente designado pela Comissão de Curso de Engenharia Física. O conteúdo será estabelecido no Plano de Trabalho entre o supervisor responsável pelo Estágio e o docente supervisor. Apresentação de relatório final sobre as atividades desenvolvidas no estágio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+    <t>A nota final será baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
+    <t>Devido às características da disciplina, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características da disciplina, não será oferecida recuperação.</t>
+    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -615,13 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -746,37 +755,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -790,322 +796,333 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="30" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="30" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" customHeight="1">
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
